--- a/medicine/Enfance/L'Histoire_sans_fin_(roman)/L'Histoire_sans_fin_(roman).xlsx
+++ b/medicine/Enfance/L'Histoire_sans_fin_(roman)/L'Histoire_sans_fin_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Histoire_sans_fin_(roman)</t>
+          <t>L'Histoire_sans_fin_(roman)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Histoire sans fin (titre original : Die unendliche Geschichte) est un roman allemand de fantasy de Michael Ende publié en 1979. Le roman raconte l'histoire d'un jeune garçon qui vole un livre intitulé L'Histoire sans fin, dans une librairie. Au fur et à mesure qu'il avance dans la lecture du livre, il se retrouve lui-même faisant partie de la quête dont le but est de sauver le monde et les habitants du Pays Fantastique.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Histoire_sans_fin_(roman)</t>
+          <t>L'Histoire_sans_fin_(roman)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le livre est composé de 27 chapitres, un pour chaque lettre de l'alphabet de A à Z et un  « chapitre zéro » dont le titre est « Livres d'occasion » écrit à l'envers sur la porte vitrée, vue de l'intérieur du magasin. La traduction française respecte la première lettre originale de chaque chapitre de la version allemande. 
 Bastien Balthazar Bux est un garçon de dix ans, petit, rond, timide, pas très beau, orphelin de mère, incompris de son père, et souffre-douleur d'un petit groupe de sa classe.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Histoire_sans_fin_(roman)</t>
+          <t>L'Histoire_sans_fin_(roman)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Histoire éditoriale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Die unendliche Geschichte, illustré par Roswitha Quadflieg, paraît chez Thienemann (Stuttgart) en 1979. En France, le roman, traduit par Dominique Autrand, paraît chez Stock en 1984.
 </t>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Histoire_sans_fin_(roman)</t>
+          <t>L'Histoire_sans_fin_(roman)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,54 +601,132 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Personnages principaux
-Atreju (prononcer à l'allemande "Atréyou") est un enfant guerrier à la peau verte du pays fantastique : beau et valeureux, il est en quelque sorte celui que Bastien a toujours rêvé d'être. Une fois les deux enfants réunis au pays fantastique, ils commencent par se lier d'amitié mais très vite se jalousent et deviennent rivaux. Bastien, fort de son nouveau statut de sauveur et chef, ne supporte pas qu'Atreju lui rappelle ses anciennes frustrations. Pourtant, il aidera Bastien à retrouver son identité perdue et rentrer chez lui.
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Atreju (prononcer à l'allemande "Atréyou") est un enfant guerrier à la peau verte du pays fantastique : beau et valeureux, il est en quelque sorte celui que Bastien a toujours rêvé d'être. Une fois les deux enfants réunis au pays fantastique, ils commencent par se lier d'amitié mais très vite se jalousent et deviennent rivaux. Bastien, fort de son nouveau statut de sauveur et chef, ne supporte pas qu'Atreju lui rappelle ses anciennes frustrations. Pourtant, il aidera Bastien à retrouver son identité perdue et rentrer chez lui.
 Fuchur (prononcer "Fourhour", renommé Falcor dans le film de Wolfgang Petersen) est un dragon porte-bonheur au corps écaillé et à la tête de lion (canine au cinéma). Toujours de bonne humeur, il aide Atreju dans sa quête pour trouver un remède à l'Impératrice, puis Bastien dans sa reconstruction du Pays Fantastique.
 La Petite Impératrice dirige le monde fantastique du haut de l'immense et magnifique Tour d'Ivoire où elle reçoit des émissaires venant des plus lointaines contrées. Elle est aussi vieille que le Pays Fantastique bien qu'elle soit encore enfant. Sa maladie et le Néant qui ronge le pays fantastique sont liés. On la nomme également la Souveraine des Désirs aux Yeux d'Or. Chaque enfant du monde des hommes arrivant dans le Pays Fantastique doit lui donner un nom pour relancer le cycle.
 Gmork est, selon le livre, un être qui n'appartient ni aux habitants du Pays Fantastique, ni à celui des hommes. Il peut traverser les deux mondes comme bon lui semble. Dans le Pays Fantastique, il prend la forme d'un loup géant. Il avait pour mission de poursuivre inlassablement Atreju dans sa quête du remède pour l'Impératrice, mais il a fini par perdre sa trace à la toile d'Ygramul la Multiple tissée au dessus de l'abime sans fond. Gmork a ensuite dérivé dans le Pays Fantastique jusqu'à faire la rencontre de la princesse des ténèbres, Gaya. Il s'est laissé séduire et lui a raconté sa mission. Celle-ci l'attacha donc à une chaîne et c'est là qu'il fait la rencontre d'Atreju. Il lui explique le moyen de se rendre au monde des Hommes et par la même occasion ce qui arrive aux habitants du pays fantastique qui se jettent dans le Néant.
-Xayide est une sorcière assoifée de pouvoirs.
-Personnages secondaires
-Nombreux et hétéroclites sont les personnages plus secondaires, souvent des créatures du Pays Fantastique :
+Xayide est une sorcière assoifée de pouvoirs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>L'Histoire_sans_fin_(roman)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Histoire_sans_fin_(roman)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Personnages secondaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nombreux et hétéroclites sont les personnages plus secondaires, souvent des créatures du Pays Fantastique :
 Graograman, le lion de flammes vivant dans Goab, le désert des couleurs, qui meurt tous les soirs pour laisser place à Perelin, la luxuriante forêt de la nuit ;
 La Vénérable Morla, la vieille tortue géante qui s'ennuie depuis des millénaires dans les Marais de la Désolation ;
 Uyulala, l'Oracle du Sud une voix sans corps que l'on ne peut consulter qu'en traversant trois portes ;
 Artax, poney d'Atreju, doué de la parole ;
 Ygramul la Multiple, araignée géante et insaisissable au venin mortel composée de millions d'insectes volants ;
-Le Vieillard qui écrit du haut de la Montagne du Destin l'Histoire sans fin, au fur et à mesure de son déroulement.
-La mise en abyme
-Le livre est basé sur une mise en abyme, de façon que le lecteur s'identifie au héros. Ainsi, le livre (du moins en version originale) est écrit en deux couleurs différentes, pour distinguer ce qui se passe dans le monde réel et ce qui se passe dans le Pays Fantastique. Il est mentionné également que le livre que lit Bastien est écrit en deux couleurs. En fait, le livre que lit Bastien peut être assimilé au livre que le lecteur a dans les mains : même description, et métaphoriquement même « pouvoir » : celui de transporter les lecteurs pour un moment dans un monde imaginaire dont ils reviendront changés.
+Le Vieillard qui écrit du haut de la Montagne du Destin l'Histoire sans fin, au fur et à mesure de son déroulement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>L'Histoire_sans_fin_(roman)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Histoire_sans_fin_(roman)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La mise en abyme</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le livre est basé sur une mise en abyme, de façon que le lecteur s'identifie au héros. Ainsi, le livre (du moins en version originale) est écrit en deux couleurs différentes, pour distinguer ce qui se passe dans le monde réel et ce qui se passe dans le Pays Fantastique. Il est mentionné également que le livre que lit Bastien est écrit en deux couleurs. En fait, le livre que lit Bastien peut être assimilé au livre que le lecteur a dans les mains : même description, et métaphoriquement même « pouvoir » : celui de transporter les lecteurs pour un moment dans un monde imaginaire dont ils reviendront changés.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>L%27Histoire_sans_fin_(roman)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>L'Histoire_sans_fin_(roman)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/L%27Histoire_sans_fin_(roman)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cinéma
-Le roman connait plusieurs adaptations au cinéma et à la télévision :
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le roman connait plusieurs adaptations au cinéma et à la télévision :
 Adaptations dont le scénario est chronologiquement lié :
 L'Histoire sans fin (1984) de Wolfgang Petersen avec Barret Oliver, Noah Hathaway — Le film adapte la première moitié du livre : la lecture du livre volé et la quête d'Atreju. Le Pays Fantastique y est nommé Fantasia et Fuchur est renommé Falkor.
 L'Histoire sans fin 2 : Un nouveau chapitre (1991) de George Trumbull Miller avec Jonathan Brandis, Kenny Morrison — Le film s'inspire légèrement de la seconde moitié du livre pour raconter les aventures de Bastien à Fantasia.
@@ -640,11 +734,46 @@
 L'Histoire sans fin (1996) de Mike Fallows (série télévisée animée de 26 épisodes) — Série animée faisant suite à la trilogie cinématographique.
 Adaptation dont le scénario est chronologiquement indépendant :
 L'Histoire sans fin (2001) de Giles Walker, Adam Weissman avec Mark Rendall, Tyler Hynes (série télévisée de 13 épisodes) — Série indépendante de la saga composée des trois films et de la série animée.
-En mars 2024, un projet d'adaptation du roman en plusieurs films est annoncé, produit d'un partenariat entre les ayants droits de Michael Ende et le studio de production anglo-australien See-Saw Films[1].
-Jeu vidéo
-Ocean Software obtient les droits pour adapter le film L'Histoire sans fin en jeu vidéo[2]. L'Histoire sans fin  sort en 1985 sur ZX Spectrum[3],[4], Amstrad CPC[5], Apple II[6], Commodore 64[7],[8] et Atari 800[9]. Ce jeu d'aventure textuelle est développé par trois anciens membres de chez Imagine Software : le programmeur Ian Weatherburn et les artistes graphiques Steve Cain et Simon Butler[2].
-Un jeu est également adapté du second film L'Histoire sans fin 2 : Un nouveau chapitre sorti en 1990. L'Histoire sans fin II est publié en 1990 sur ZX Spectrum[10], Amiga[11],[12], Commodore 64[13], et PC (DOS)[14].
-Une troisième adaptation en jeu vidéo du roman est publiée en 2002 sous le titre Auryn Quest sur PC (Windows)[15],[16].
+En mars 2024, un projet d'adaptation du roman en plusieurs films est annoncé, produit d'un partenariat entre les ayants droits de Michael Ende et le studio de production anglo-australien See-Saw Films.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>L'Histoire_sans_fin_(roman)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Histoire_sans_fin_(roman)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Adaptation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Jeu vidéo</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ocean Software obtient les droits pour adapter le film L'Histoire sans fin en jeu vidéo. L'Histoire sans fin  sort en 1985 sur ZX Spectrum Amstrad CPC, Apple II, Commodore 64, et Atari 800. Ce jeu d'aventure textuelle est développé par trois anciens membres de chez Imagine Software : le programmeur Ian Weatherburn et les artistes graphiques Steve Cain et Simon Butler.
+Un jeu est également adapté du second film L'Histoire sans fin 2 : Un nouveau chapitre sorti en 1990. L'Histoire sans fin II est publié en 1990 sur ZX Spectrum, Amiga Commodore 64, et PC (DOS).
+Une troisième adaptation en jeu vidéo du roman est publiée en 2002 sous le titre Auryn Quest sur PC (Windows),.
 </t>
         </is>
       </c>
